--- a/web_scraper/processed_judgements_final/crl.a._208_2022.xlsx
+++ b/web_scraper/processed_judgements_final/crl.a._208_2022.xlsx
@@ -453,17 +453,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * On March 25, 2013, a team of Anti-Narcotics Force (ANF) officials intercepted a Vigo Hilux Toyota vehicle bearing registration No. CS-8258, which was being driven by the appellant, Zain Ali. * From the secret cavities of the vehicle, 563 kilograms of charas and 1500 grams of opium were recovered. * The appellant was arrested, and a report was submitted under Section 173 Cr.P.C. before the competent Court of law. * The prosecution alleged that the appellant was transporting the narcotics and that the recovery was made in broad daylight.  </t>
+          <t xml:space="preserve"> * The appellant, Zain Ali, was driving a vehicle (Vigo Hilux Toyota) on March 25, 2013, at Old Toll Plaza, National Highway, Rohri. * A team of ANF officials intercepted the vehicle and recovered 563 kilograms of charas (a type of marijuana) and 1500 grams of opium from the secret cavities of the vehicle. * The appellant was arrested, and the recovered narcotics were sealed and sent for chemical examination. * The prosecution alleged that the appellant was transporting the narcotics and was caught red-handed.  </t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * Inspector Tahir Ahmed, the complainant (PW-1) * Aijaz Ali Shah, PC (PW-2), who was present during the recovery  </t>
+          <t xml:space="preserve"> * Inspector Tahir Ahmed (PW-1), the complainant, and Aijaz Ali Shah, PC (PW-2), testified to the recovery of the narcotics and the appellant's arrest. * Both witnesses remained consistent throughout their testimonies and did not have any enmity with the appellant.  </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> * The appellant was convicted under Section 9(c) of the Control of Narcotic Substances Act, 1997, and sentenced to imprisonment for life. * The learned High Court maintained the conviction and sentences recorded against the appellant by the learned Trial Court. * The Supreme Court dismissed the appeal, upholding the conviction and sentence. * The Court held that the prosecution's case was established by the testimony of the official witnesses, which was consistent, cogent, and reliable. * The Court also held that the safe custody of the recovered narcotics was established, despite the absence of one witness, Suleman Haider, Constable, who deposited the sample parcels in the office of Chemical Examiner. * The Court emphasized the importance of addressing the menace of drugs in the country and the need to take immediate steps to curb these nefarious activities.  **Section of Law Applied:**  * Section 9(c) of the Control of Narcotic Substances Act, 1997 * Section 173 Cr.P.C. * Section 29 of the Control of Narcotic Substances Act, 1997 </t>
+          <t xml:space="preserve"> * The appellant was convicted under Section 9(c) of the Control of Narcotic Substances Act, 1997, and sentenced to imprisonment for life. * The learned High Court maintained the conviction and sentences recorded against the appellant. * The Supreme Court of Pakistan dismissed the appeal filed by the appellant, upholding the conviction and sentences. * The court held that the prosecution had successfully established its case by proving the recovery of the narcotics, the safe custody of the recovered narcotics, and the testimony of the official witnesses. * The court also rejected the appellant's argument that the prosecution witnesses had inconsistencies in their testimonies and that the safe custody of the recovered narcotics was not established. * The court held that the menace of drugs is a serious threat to society and that the prosecution should not be hampered by technicalities in cases involving drug trafficking. </t>
         </is>
       </c>
     </row>
